--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_20pct/Rankings/estadisticos_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_20pct/Rankings/estadisticos_General.xlsx
@@ -49,16 +49,16 @@
     <t>LSPM</t>
   </si>
   <si>
+    <t>LSPMW</t>
+  </si>
+  <si>
+    <t>MCPS</t>
+  </si>
+  <si>
+    <t>AV-MCPS</t>
+  </si>
+  <si>
     <t>DeepAR</t>
-  </si>
-  <si>
-    <t>MCPS</t>
-  </si>
-  <si>
-    <t>AV-MCPS</t>
-  </si>
-  <si>
-    <t>LSPMW</t>
   </si>
   <si>
     <t>EnCQR-LSTM</t>
@@ -465,28 +465,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.5774576320792454</v>
+        <v>0.5671364262344255</v>
       </c>
       <c r="C2">
-        <v>0.5126498530982394</v>
+        <v>0.4995135918358526</v>
       </c>
       <c r="D2">
-        <v>0.3040753793875368</v>
+        <v>0.3048568721423204</v>
       </c>
       <c r="E2">
-        <v>0.5265760854050122</v>
+        <v>0.5375371040200263</v>
       </c>
       <c r="F2">
-        <v>0.2140595076487874</v>
+        <v>0.2082375448988096</v>
       </c>
       <c r="G2">
-        <v>2.188156231448168</v>
+        <v>4.071700465624107</v>
       </c>
       <c r="H2">
-        <v>0.3610907005938837</v>
+        <v>0.3480576399328483</v>
       </c>
       <c r="I2">
-        <v>0.8699607523530095</v>
+        <v>0.8499843662376361</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -494,28 +494,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.7877186732480409</v>
+        <v>0.820242277353684</v>
       </c>
       <c r="C3">
-        <v>0.6099636811495888</v>
+        <v>0.6146420866091313</v>
       </c>
       <c r="D3">
-        <v>0.5838665245510142</v>
+        <v>0.6749948585634675</v>
       </c>
       <c r="E3">
-        <v>0.7412119889751088</v>
+        <v>0.8229213211749794</v>
       </c>
       <c r="F3">
-        <v>0.2151884889876925</v>
+        <v>0.2097177891653769</v>
       </c>
       <c r="G3">
-        <v>6.150116292088986</v>
+        <v>9.905025680815388</v>
       </c>
       <c r="H3">
-        <v>0.404541450927874</v>
+        <v>0.4103992769899172</v>
       </c>
       <c r="I3">
-        <v>1.003957795883351</v>
+        <v>1.015492740044083</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>1.297661622856752</v>
+        <v>0.8283628986472749</v>
       </c>
       <c r="C4">
-        <v>0.5766701293992152</v>
+        <v>0.6207206254417064</v>
       </c>
       <c r="D4">
-        <v>3.483574548888581</v>
+        <v>0.6797971916736661</v>
       </c>
       <c r="E4">
-        <v>2.684501481379735</v>
+        <v>0.8206514231670466</v>
       </c>
       <c r="F4">
-        <v>0.2215262955344381</v>
+        <v>0.2097119174583079</v>
       </c>
       <c r="G4">
-        <v>38.06700378984844</v>
+        <v>9.803368622477741</v>
       </c>
       <c r="H4">
-        <v>0.3958837174807842</v>
+        <v>0.4131780682282615</v>
       </c>
       <c r="I4">
-        <v>1.005686049268279</v>
+        <v>1.021944342066563</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -552,28 +552,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1.298246623877678</v>
+        <v>1.343249355914538</v>
       </c>
       <c r="C5">
-        <v>0.6893451579469352</v>
+        <v>0.6956349781587379</v>
       </c>
       <c r="D5">
-        <v>1.87692844364191</v>
+        <v>2.344527776443708</v>
       </c>
       <c r="E5">
-        <v>1.445741054989839</v>
+        <v>1.745415150299819</v>
       </c>
       <c r="F5">
-        <v>0.2219302088681597</v>
+        <v>0.2190088958928648</v>
       </c>
       <c r="G5">
-        <v>18.09839073039754</v>
+        <v>35.39654378425496</v>
       </c>
       <c r="H5">
-        <v>0.4615482127191447</v>
+        <v>0.4474016655263179</v>
       </c>
       <c r="I5">
-        <v>1.249417640389517</v>
+        <v>1.168973660764687</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -581,28 +581,28 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1.329647778123854</v>
+        <v>1.380402344219233</v>
       </c>
       <c r="C6">
-        <v>0.6760623656184281</v>
+        <v>0.6783607945877814</v>
       </c>
       <c r="D6">
-        <v>2.028512557943145</v>
+        <v>2.578294375508079</v>
       </c>
       <c r="E6">
-        <v>1.525601434693778</v>
+        <v>1.86778469792181</v>
       </c>
       <c r="F6">
-        <v>0.2236136918375075</v>
+        <v>0.216710954995131</v>
       </c>
       <c r="G6">
-        <v>20.09851378673979</v>
+        <v>40.7241890456435</v>
       </c>
       <c r="H6">
-        <v>0.4588017757892563</v>
+        <v>0.4381128506951906</v>
       </c>
       <c r="I6">
-        <v>1.189003883819212</v>
+        <v>1.181782113140529</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -610,28 +610,28 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>1.489903633896171</v>
+        <v>1.488556683684069</v>
       </c>
       <c r="C7">
-        <v>0.873483264434322</v>
+        <v>0.5682980016501629</v>
       </c>
       <c r="D7">
-        <v>2.013008670024137</v>
+        <v>4.976523866447701</v>
       </c>
       <c r="E7">
-        <v>1.351099912925255</v>
+        <v>3.343187344489407</v>
       </c>
       <c r="F7">
-        <v>0.2309175454760594</v>
+        <v>0.2193037581411256</v>
       </c>
       <c r="G7">
-        <v>19.3623946237339</v>
+        <v>71.49265836244341</v>
       </c>
       <c r="H7">
-        <v>0.4675691589514714</v>
+        <v>0.3920429950755263</v>
       </c>
       <c r="I7">
-        <v>1.507271434427381</v>
+        <v>0.9823630883028784</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -639,28 +639,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>2.187906433249951</v>
+        <v>1.953610766464056</v>
       </c>
       <c r="C8">
-        <v>1.265673663352169</v>
+        <v>0.8953840906749675</v>
       </c>
       <c r="D8">
-        <v>2.464327712139585</v>
+        <v>3.37596499578874</v>
       </c>
       <c r="E8">
-        <v>1.126340539379937</v>
+        <v>1.728064286776571</v>
       </c>
       <c r="F8">
-        <v>0.2839391131968524</v>
+        <v>0.216812989235065</v>
       </c>
       <c r="G8">
-        <v>15.20667212570506</v>
+        <v>33.69577909168969</v>
       </c>
       <c r="H8">
-        <v>0.7051077220957231</v>
+        <v>0.488381398353488</v>
       </c>
       <c r="I8">
-        <v>2.708611099502007</v>
+        <v>1.719680349396104</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -668,28 +668,28 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>2.991284383072845</v>
+        <v>3.824239515718811</v>
       </c>
       <c r="C9">
-        <v>1.031707716570168</v>
+        <v>0.9739119154877969</v>
       </c>
       <c r="D9">
-        <v>5.472785947841974</v>
+        <v>10.26457754314626</v>
       </c>
       <c r="E9">
-        <v>1.829577280853506</v>
+        <v>2.684083332373838</v>
       </c>
       <c r="F9">
-        <v>0.2269726418071028</v>
+        <v>0.2194162138633991</v>
       </c>
       <c r="G9">
-        <v>50.13158264625985</v>
+        <v>135.9442513659722</v>
       </c>
       <c r="H9">
-        <v>0.5153650703680146</v>
+        <v>0.4815455938320795</v>
       </c>
       <c r="I9">
-        <v>3.044194179536238</v>
+        <v>2.274539197940336</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -697,28 +697,28 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>3.163775868438677</v>
+        <v>4.182438981654339</v>
       </c>
       <c r="C10">
-        <v>1.012424909824027</v>
+        <v>0.9656608259244532</v>
       </c>
       <c r="D10">
-        <v>5.722290596459916</v>
+        <v>10.91340607142047</v>
       </c>
       <c r="E10">
-        <v>1.808690259491696</v>
+        <v>2.609340176698462</v>
       </c>
       <c r="F10">
-        <v>0.2217638688940947</v>
+        <v>0.211560669873789</v>
       </c>
       <c r="G10">
-        <v>50.77487921368575</v>
+        <v>145.3033958673079</v>
       </c>
       <c r="H10">
-        <v>0.5010198350868103</v>
+        <v>0.4724322737420653</v>
       </c>
       <c r="I10">
-        <v>3.545110960979348</v>
+        <v>2.757014218658168</v>
       </c>
     </row>
   </sheetData>
